--- a/Owners home value and driving distance.xlsx
+++ b/Owners home value and driving distance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enjoiresorts-my.sharepoint.com/personal/s_alarda_enjoiresorts_com/Documents/Enjoi AI/Owner Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAF4F67C-AD36-4B18-858C-5B68A32252F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FE8FC3A-030D-4CEA-B3E3-B59B107E0394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32306,7 +32306,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32316,6 +32320,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32355,16 +32366,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -32669,14 +32683,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L19" workbookViewId="0">
-      <selection activeCell="U2" activeCellId="1" sqref="U3:U1048576 U2"/>
+    <sheetView tabSelected="1" topLeftCell="A1010" workbookViewId="0">
+      <selection activeCell="B1028" sqref="A1028:XFD1028"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="17.54296875" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" customWidth="1"/>
     <col min="17" max="17" width="20.54296875" customWidth="1"/>
     <col min="19" max="19" width="30.54296875" customWidth="1"/>
     <col min="20" max="20" width="11.90625" customWidth="1"/>
@@ -79426,14 +79440,14 @@
       <c r="T631">
         <v>726500</v>
       </c>
-      <c r="U631" t="s">
-        <v>8269</v>
+      <c r="U631" s="2">
+        <v>414</v>
       </c>
       <c r="V631" t="s">
-        <v>8931</v>
+        <v>8533</v>
       </c>
       <c r="W631">
-        <v>4273</v>
+        <v>406</v>
       </c>
       <c r="X631" t="s">
         <v>9633</v>
@@ -102111,6 +102125,9 @@
       </c>
       <c r="N940" t="s">
         <v>1525</v>
+      </c>
+      <c r="O940" t="s">
+        <v>4342</v>
       </c>
       <c r="P940" t="s">
         <v>5100</v>
